--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/AB/10/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/AB/10/seed2/result_data_RandomForest.xlsx
@@ -479,7 +479,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-22.07050000000001</v>
+        <v>-22.04450000000001</v>
       </c>
       <c r="B3" t="n">
         <v>4.03</v>
@@ -785,7 +785,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-20.19919999999998</v>
+        <v>-20.07989999999998</v>
       </c>
       <c r="B21" t="n">
         <v>9.52</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-20.49699999999998</v>
+        <v>-20.23579999999998</v>
       </c>
       <c r="B23" t="n">
         <v>7.87</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-21.7429</v>
+        <v>-21.71489999999999</v>
       </c>
       <c r="B25" t="n">
         <v>5.23</v>
@@ -890,7 +890,7 @@
         <v>-21.86</v>
       </c>
       <c r="B27" t="n">
-        <v>6.121500000000001</v>
+        <v>5.990200000000001</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
@@ -958,7 +958,7 @@
         <v>-21.76</v>
       </c>
       <c r="B31" t="n">
-        <v>5.610900000000003</v>
+        <v>5.433900000000001</v>
       </c>
       <c r="C31" t="n">
         <v>-11.3</v>
@@ -1094,7 +1094,7 @@
         <v>-18.76</v>
       </c>
       <c r="B39" t="n">
-        <v>9.788000000000006</v>
+        <v>9.668200000000006</v>
       </c>
       <c r="C39" t="n">
         <v>-10.58</v>
@@ -1247,7 +1247,7 @@
         <v>-21.86</v>
       </c>
       <c r="B48" t="n">
-        <v>5.538500000000004</v>
+        <v>5.322200000000004</v>
       </c>
       <c r="C48" t="n">
         <v>-10.86</v>
@@ -1298,7 +1298,7 @@
         <v>-22</v>
       </c>
       <c r="B51" t="n">
-        <v>5.484100000000001</v>
+        <v>5.549599999999998</v>
       </c>
       <c r="C51" t="n">
         <v>-13.17</v>
@@ -1315,7 +1315,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>5.4579</v>
+        <v>5.167499999999999</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1329,7 +1329,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-21.9448</v>
+        <v>-21.86360000000001</v>
       </c>
       <c r="B53" t="n">
         <v>5.82</v>
@@ -1366,7 +1366,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>6.095099999999997</v>
+        <v>5.952899999999995</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1383,7 +1383,7 @@
         <v>-21.95</v>
       </c>
       <c r="B56" t="n">
-        <v>5.023899999999997</v>
+        <v>4.921099999999999</v>
       </c>
       <c r="C56" t="n">
         <v>-13.63</v>
@@ -1397,10 +1397,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.20280000000001</v>
+        <v>-22.17430000000001</v>
       </c>
       <c r="B57" t="n">
-        <v>4.992799999999999</v>
+        <v>4.693499999999997</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
@@ -1431,7 +1431,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-22.17129999999999</v>
+        <v>-22.1996</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.6301</v>
+        <v>-21.62219999999999</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1672,7 +1672,7 @@
         <v>-20.59</v>
       </c>
       <c r="B73" t="n">
-        <v>9.157799999999998</v>
+        <v>8.223700000000001</v>
       </c>
       <c r="C73" t="n">
         <v>-15.02</v>
@@ -1771,7 +1771,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-20.63600000000001</v>
+        <v>-20.51340000000001</v>
       </c>
       <c r="B79" t="n">
         <v>8.949999999999999</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-22.0407</v>
+        <v>-21.9761</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1944,7 +1944,7 @@
         <v>-21.45</v>
       </c>
       <c r="B89" t="n">
-        <v>4.916099999999994</v>
+        <v>4.949399999999994</v>
       </c>
       <c r="C89" t="n">
         <v>-10.11</v>
@@ -1961,7 +1961,7 @@
         <v>-21.82</v>
       </c>
       <c r="B90" t="n">
-        <v>5.703400000000003</v>
+        <v>5.695800000000005</v>
       </c>
       <c r="C90" t="n">
         <v>-12.06</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.6083</v>
+        <v>-21.4019</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
